--- a/handball_players_report.xlsx
+++ b/handball_players_report.xlsx
@@ -566,7 +566,7 @@
     <col width="10" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -577,7 +577,8 @@
           <t>Sa, 20.09.
 SV Leonberg/Eltingen
 vs
-🏃 DJK Singen</t>
+🏃 DJK Singen
+26:23</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -585,7 +586,8 @@
           <t>So, 28.09.
 🏠 DJK Singen
 vs
-Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+Jugendhandball-Akademie Neuhausen-Ostfildern 2
+34:26</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -593,7 +595,8 @@
           <t>So, 05.10.
 🏠 DJK Singen
 vs
-HSG Böblingen/Sindelfingen</t>
+HSG Böblingen/Sindelfingen
+25:26</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -601,7 +604,8 @@
           <t>So, 12.10.
 Team Stuttgart
 vs
-🏃 DJK Singen</t>
+🏃 DJK Singen
+27:14</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -609,7 +613,8 @@
           <t>So, 19.10.
 🏠 DJK Singen
 vs
-HSG Konstanz</t>
+HSG Konstanz
+19:19</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -617,7 +622,8 @@
           <t>So, 09.11.
 HSG Schönbuch
 vs
-🏃 DJK Singen</t>
+🏃 DJK Singen
+26:25</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -625,7 +631,8 @@
           <t>So, 16.11.
 🏠 DJK Singen
 vs
-Spvgg Mössingen</t>
+Spvgg Mössingen
+27:32</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -633,7 +640,8 @@
           <t>So, 23.11.
 TV Überlingen
 vs
-🏃 DJK Singen</t>
+🏃 DJK Singen
+29:33</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -641,7 +649,8 @@
           <t>So, 07.12.
 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-🏃 DJK Singen</t>
+🏃 DJK Singen
+30:22</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -649,7 +658,8 @@
           <t>Sa, 13.12.
 🏠 DJK Singen
 vs
-SV Leonberg/Eltingen</t>
+SV Leonberg/Eltingen
+28:30</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -657,7 +667,8 @@
           <t>Sa, 20.12.
 🏠 DJK Singen
 vs
-SV Vaihingen</t>
+SV Vaihingen
+36:26</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5626,7 @@
     <col width="10" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -5626,7 +5637,8 @@
           <t>Sa, 20.09.
 SV Vaihingen
 vs
-🏃 Team Stuttgart</t>
+🏃 Team Stuttgart
+28:50</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -5634,7 +5646,8 @@
           <t>So, 28.09.
 🏠 Team Stuttgart
 vs
-SV Leonberg/Eltingen</t>
+SV Leonberg/Eltingen
+39:22</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -5642,7 +5655,8 @@
           <t>Sa, 04.10.
 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-🏃 Team Stuttgart</t>
+🏃 Team Stuttgart
+31:39</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -5650,7 +5664,8 @@
           <t>So, 12.10.
 🏠 Team Stuttgart
 vs
-DJK Singen</t>
+DJK Singen
+27:14</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -5658,7 +5673,8 @@
           <t>Sa, 18.10.
 🏠 Team Stuttgart
 vs
-HSG Böblingen/Sindelfingen</t>
+HSG Böblingen/Sindelfingen
+32:19</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -5666,7 +5682,8 @@
           <t>Sa, 08.11.
 HSG Konstanz
 vs
-🏃 Team Stuttgart</t>
+🏃 Team Stuttgart
+28:39</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -5674,7 +5691,8 @@
           <t>So, 16.11.
 🏠 Team Stuttgart
 vs
-HSG Schönbuch</t>
+HSG Schönbuch
+44:28</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -5682,7 +5700,8 @@
           <t>So, 23.11.
 Spvgg Mössingen
 vs
-🏃 Team Stuttgart</t>
+🏃 Team Stuttgart
+25:33</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -5690,7 +5709,8 @@
           <t>So, 30.11.
 🏠 Team Stuttgart
 vs
-TV Überlingen</t>
+TV Überlingen
+45:26</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -5698,7 +5718,8 @@
           <t>Sa, 06.12.
 SV Leonberg/Eltingen
 vs
-🏃 Team Stuttgart</t>
+🏃 Team Stuttgart
+20:26</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -5706,7 +5727,8 @@
           <t>So, 14.12.
 🏠 Team Stuttgart
 vs
-SV Vaihingen</t>
+SV Vaihingen
+40:29</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11573,7 @@
     <col width="10" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -11562,7 +11584,8 @@
           <t>Sa, 20.09.
 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-🏃 HSG Böblingen/Sindelfingen</t>
+🏃 HSG Böblingen/Sindelfingen
+29:31</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -11570,7 +11593,8 @@
           <t>Sa, 27.09.
 🏠 HSG Böblingen/Sindelfingen
 vs
-Spvgg Mössingen</t>
+Spvgg Mössingen
+27:21</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -11578,7 +11602,8 @@
           <t>So, 05.10.
 DJK Singen
 vs
-🏃 HSG Böblingen/Sindelfingen</t>
+🏃 HSG Böblingen/Sindelfingen
+25:26</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -11586,7 +11611,8 @@
           <t>Sa, 18.10.
 Team Stuttgart
 vs
-🏃 HSG Böblingen/Sindelfingen</t>
+🏃 HSG Böblingen/Sindelfingen
+32:19</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -11594,7 +11620,8 @@
           <t>So, 26.10.
 SV Leonberg/Eltingen
 vs
-🏃 HSG Böblingen/Sindelfingen</t>
+🏃 HSG Böblingen/Sindelfingen
+28:40</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -11602,7 +11629,8 @@
           <t>Sa, 08.11.
 🏠 HSG Böblingen/Sindelfingen
 vs
-SV Vaihingen</t>
+SV Vaihingen
+34:33</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -11610,7 +11638,8 @@
           <t>So, 16.11.
 HSG Konstanz
 vs
-🏃 HSG Böblingen/Sindelfingen</t>
+🏃 HSG Böblingen/Sindelfingen
+38:31</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -11618,7 +11647,8 @@
           <t>So, 30.11.
 🏠 HSG Böblingen/Sindelfingen
 vs
-HSG Schönbuch</t>
+HSG Schönbuch
+40:34</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -11626,7 +11656,8 @@
           <t>So, 07.12.
 Spvgg Mössingen
 vs
-🏃 HSG Böblingen/Sindelfingen</t>
+🏃 HSG Böblingen/Sindelfingen
+22:24</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -11634,7 +11665,8 @@
           <t>Fr, 12.12.
 🏠 HSG Böblingen/Sindelfingen
 vs
-TV Überlingen</t>
+TV Überlingen
+31:29</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -11642,7 +11674,8 @@
           <t>So, 14.12.
 🏠 HSG Böblingen/Sindelfingen
 vs
-Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+Jugendhandball-Akademie Neuhausen-Ostfildern 2
+33:28</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16687,7 @@
     <col width="10" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -16665,7 +16698,8 @@
           <t>Sa, 27.09.
 🏠 HSG Konstanz
 vs
-SV Vaihingen</t>
+SV Vaihingen
+27:22</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -16673,7 +16707,8 @@
           <t>Sa, 04.10.
 SV Leonberg/Eltingen
 vs
-🏃 HSG Konstanz</t>
+🏃 HSG Konstanz
+28:26</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -16681,7 +16716,8 @@
           <t>So, 12.10.
 🏠 HSG Konstanz
 vs
-Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+Jugendhandball-Akademie Neuhausen-Ostfildern 2
+25:26</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -16689,7 +16725,8 @@
           <t>So, 19.10.
 DJK Singen
 vs
-🏃 HSG Konstanz</t>
+🏃 HSG Konstanz
+19:19</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -16697,7 +16734,8 @@
           <t>Sa, 08.11.
 🏠 HSG Konstanz
 vs
-Team Stuttgart</t>
+Team Stuttgart
+28:39</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -16705,7 +16743,8 @@
           <t>So, 16.11.
 🏠 HSG Konstanz
 vs
-HSG Böblingen/Sindelfingen</t>
+HSG Böblingen/Sindelfingen
+38:31</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -16713,7 +16752,8 @@
           <t>So, 23.11.
 HSG Schönbuch
 vs
-🏃 HSG Konstanz</t>
+🏃 HSG Konstanz
+28:30</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -16721,7 +16761,8 @@
           <t>Sa, 29.11.
 🏠 HSG Konstanz
 vs
-Spvgg Mössingen</t>
+Spvgg Mössingen
+24:27</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -16729,7 +16770,8 @@
           <t>Sa, 06.12.
 SV Vaihingen
 vs
-🏃 HSG Konstanz</t>
+🏃 HSG Konstanz
+34:29</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -16737,7 +16779,8 @@
           <t>So, 14.12.
 🏠 HSG Konstanz
 vs
-TV Überlingen</t>
+TV Überlingen
+33:34</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -16745,7 +16788,8 @@
           <t>Sa, 20.12.
 TV Überlingen
 vs
-🏃 HSG Konstanz</t>
+🏃 HSG Konstanz
+32:30</t>
         </is>
       </c>
     </row>
@@ -23790,7 +23834,7 @@
     <col width="10" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -23801,7 +23845,8 @@
           <t>So, 21.09.
 Spvgg Mössingen
 vs
-🏃 HSG Schönbuch</t>
+🏃 HSG Schönbuch
+32:28</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -23809,7 +23854,8 @@
           <t>Sa, 27.09.
 🏠 HSG Schönbuch
 vs
-TV Überlingen</t>
+TV Überlingen
+35:35</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -23817,7 +23863,8 @@
           <t>So, 05.10.
 SV Vaihingen
 vs
-🏃 HSG Schönbuch</t>
+🏃 HSG Schönbuch
+38:37</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -23825,7 +23872,8 @@
           <t>So, 12.10.
 🏠 HSG Schönbuch
 vs
-SV Leonberg/Eltingen</t>
+SV Leonberg/Eltingen
+41:30</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -23833,7 +23881,8 @@
           <t>So, 19.10.
 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-🏃 HSG Schönbuch</t>
+🏃 HSG Schönbuch
+38:37</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -23841,7 +23890,8 @@
           <t>So, 09.11.
 🏠 HSG Schönbuch
 vs
-DJK Singen</t>
+DJK Singen
+26:25</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -23849,7 +23899,8 @@
           <t>So, 16.11.
 Team Stuttgart
 vs
-🏃 HSG Schönbuch</t>
+🏃 HSG Schönbuch
+44:28</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -23857,7 +23908,8 @@
           <t>So, 23.11.
 🏠 HSG Schönbuch
 vs
-HSG Konstanz</t>
+HSG Konstanz
+28:30</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -23865,7 +23917,8 @@
           <t>So, 30.11.
 HSG Böblingen/Sindelfingen
 vs
-🏃 HSG Schönbuch</t>
+🏃 HSG Schönbuch
+40:34</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -23873,7 +23926,8 @@
           <t>Sa, 06.12.
 TV Überlingen
 vs
-🏃 HSG Schönbuch</t>
+🏃 HSG Schönbuch
+50:32</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -23881,7 +23935,8 @@
           <t>Sa, 13.12.
 🏠 HSG Schönbuch
 vs
-Spvgg Mössingen</t>
+Spvgg Mössingen
+23:28</t>
         </is>
       </c>
     </row>
@@ -29785,7 +29840,7 @@
     <col width="10" customWidth="1" min="66" max="66"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -29796,7 +29851,8 @@
           <t>Sa, 20.09.
 🏠 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-HSG Böblingen/Sindelfingen</t>
+HSG Böblingen/Sindelfingen
+29:31</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -29804,7 +29860,8 @@
           <t>So, 28.09.
 DJK Singen
 vs
-🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2
+34:26</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -29812,7 +29869,8 @@
           <t>Sa, 04.10.
 🏠 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-Team Stuttgart</t>
+Team Stuttgart
+31:39</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -29820,7 +29878,8 @@
           <t>So, 12.10.
 HSG Konstanz
 vs
-🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2
+25:26</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -29828,7 +29887,8 @@
           <t>So, 19.10.
 🏠 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-HSG Schönbuch</t>
+HSG Schönbuch
+38:37</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -29836,7 +29896,8 @@
           <t>So, 09.11.
 Spvgg Mössingen
 vs
-🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2
+21:26</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -29844,7 +29905,8 @@
           <t>Sa, 15.11.
 🏠 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-TV Überlingen</t>
+TV Überlingen
+36:33</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -29852,7 +29914,8 @@
           <t>So, 23.11.
 SV Vaihingen
 vs
-🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2
+30:33</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -29860,7 +29923,8 @@
           <t>Sa, 29.11.
 🏠 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-SV Leonberg/Eltingen</t>
+SV Leonberg/Eltingen
+35:30</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -29868,7 +29932,8 @@
           <t>So, 07.12.
 🏠 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-DJK Singen</t>
+DJK Singen
+30:22</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -29876,7 +29941,8 @@
           <t>So, 14.12.
 HSG Böblingen/Sindelfingen
 vs
-🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2
+33:28</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
@@ -29884,7 +29950,8 @@
           <t>Sa, 10.01.
 TV Überlingen
 vs
-🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+🏃 Jugendhandball-Akademie Neuhausen-Ostfildern 2
+46:38</t>
         </is>
       </c>
     </row>
@@ -36230,7 +36297,7 @@
     <col width="10" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -36241,7 +36308,8 @@
           <t>Sa, 20.09.
 🏠 SV Leonberg/Eltingen
 vs
-DJK Singen</t>
+DJK Singen
+26:23</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -36249,7 +36317,8 @@
           <t>So, 28.09.
 Team Stuttgart
 vs
-🏃 SV Leonberg/Eltingen</t>
+🏃 SV Leonberg/Eltingen
+39:22</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -36257,7 +36326,8 @@
           <t>Sa, 04.10.
 🏠 SV Leonberg/Eltingen
 vs
-HSG Konstanz</t>
+HSG Konstanz
+28:26</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -36265,7 +36335,8 @@
           <t>So, 12.10.
 HSG Schönbuch
 vs
-🏃 SV Leonberg/Eltingen</t>
+🏃 SV Leonberg/Eltingen
+41:30</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -36273,7 +36344,8 @@
           <t>Sa, 18.10.
 🏠 SV Leonberg/Eltingen
 vs
-Spvgg Mössingen</t>
+Spvgg Mössingen
+29:35</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -36281,7 +36353,8 @@
           <t>So, 26.10.
 🏠 SV Leonberg/Eltingen
 vs
-HSG Böblingen/Sindelfingen</t>
+HSG Böblingen/Sindelfingen
+28:40</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -36289,7 +36362,8 @@
           <t>Sa, 08.11.
 TV Überlingen
 vs
-🏃 SV Leonberg/Eltingen</t>
+🏃 SV Leonberg/Eltingen
+36:37</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -36297,7 +36371,8 @@
           <t>Sa, 15.11.
 🏠 SV Leonberg/Eltingen
 vs
-SV Vaihingen</t>
+SV Vaihingen
+37:43</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -36305,7 +36380,8 @@
           <t>Sa, 29.11.
 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-🏃 SV Leonberg/Eltingen</t>
+🏃 SV Leonberg/Eltingen
+35:30</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -36313,7 +36389,8 @@
           <t>Sa, 06.12.
 🏠 SV Leonberg/Eltingen
 vs
-Team Stuttgart</t>
+Team Stuttgart
+20:26</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -36321,7 +36398,8 @@
           <t>Sa, 13.12.
 DJK Singen
 vs
-🏃 SV Leonberg/Eltingen</t>
+🏃 SV Leonberg/Eltingen
+28:30</t>
         </is>
       </c>
     </row>
@@ -44341,7 +44419,7 @@
     <col width="10" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -44352,7 +44430,8 @@
           <t>Sa, 20.09.
 🏠 SV Vaihingen
 vs
-Team Stuttgart</t>
+Team Stuttgart
+28:50</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -44360,7 +44439,8 @@
           <t>Sa, 27.09.
 HSG Konstanz
 vs
-🏃 SV Vaihingen</t>
+🏃 SV Vaihingen
+27:22</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -44368,7 +44448,8 @@
           <t>So, 05.10.
 🏠 SV Vaihingen
 vs
-HSG Schönbuch</t>
+HSG Schönbuch
+38:37</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -44376,7 +44457,8 @@
           <t>Sa, 11.10.
 Spvgg Mössingen
 vs
-🏃 SV Vaihingen</t>
+🏃 SV Vaihingen
+26:23</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -44384,7 +44466,8 @@
           <t>So, 19.10.
 🏠 SV Vaihingen
 vs
-TV Überlingen</t>
+TV Überlingen
+34:33</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -44392,7 +44475,8 @@
           <t>Sa, 08.11.
 HSG Böblingen/Sindelfingen
 vs
-🏃 SV Vaihingen</t>
+🏃 SV Vaihingen
+34:33</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -44400,7 +44484,8 @@
           <t>Sa, 15.11.
 SV Leonberg/Eltingen
 vs
-🏃 SV Vaihingen</t>
+🏃 SV Vaihingen
+37:43</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -44408,7 +44493,8 @@
           <t>So, 23.11.
 🏠 SV Vaihingen
 vs
-Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+Jugendhandball-Akademie Neuhausen-Ostfildern 2
+30:33</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -44416,7 +44502,8 @@
           <t>Sa, 06.12.
 🏠 SV Vaihingen
 vs
-HSG Konstanz</t>
+HSG Konstanz
+34:29</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -44424,7 +44511,8 @@
           <t>So, 14.12.
 Team Stuttgart
 vs
-🏃 SV Vaihingen</t>
+🏃 SV Vaihingen
+40:29</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -44432,7 +44520,8 @@
           <t>Sa, 20.12.
 DJK Singen
 vs
-🏃 SV Vaihingen</t>
+🏃 SV Vaihingen
+36:26</t>
         </is>
       </c>
     </row>
@@ -50335,7 +50424,7 @@
     <col width="10" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -50346,7 +50435,8 @@
           <t>So, 21.09.
 🏠 Spvgg Mössingen
 vs
-HSG Schönbuch</t>
+HSG Schönbuch
+32:28</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -50354,7 +50444,8 @@
           <t>Sa, 27.09.
 HSG Böblingen/Sindelfingen
 vs
-🏃 Spvgg Mössingen</t>
+🏃 Spvgg Mössingen
+27:21</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -50362,7 +50453,8 @@
           <t>Sa, 11.10.
 🏠 Spvgg Mössingen
 vs
-SV Vaihingen</t>
+SV Vaihingen
+26:23</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -50370,7 +50462,8 @@
           <t>Sa, 18.10.
 SV Leonberg/Eltingen
 vs
-🏃 Spvgg Mössingen</t>
+🏃 Spvgg Mössingen
+29:35</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -50378,7 +50471,8 @@
           <t>Sa, 25.10.
 TV Überlingen
 vs
-🏃 Spvgg Mössingen</t>
+🏃 Spvgg Mössingen
+36:28</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -50386,7 +50480,8 @@
           <t>So, 09.11.
 🏠 Spvgg Mössingen
 vs
-Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+Jugendhandball-Akademie Neuhausen-Ostfildern 2
+21:26</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -50394,7 +50489,8 @@
           <t>So, 16.11.
 DJK Singen
 vs
-🏃 Spvgg Mössingen</t>
+🏃 Spvgg Mössingen
+27:32</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -50402,7 +50498,8 @@
           <t>So, 23.11.
 🏠 Spvgg Mössingen
 vs
-Team Stuttgart</t>
+Team Stuttgart
+25:33</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -50410,7 +50507,8 @@
           <t>Sa, 29.11.
 HSG Konstanz
 vs
-🏃 Spvgg Mössingen</t>
+🏃 Spvgg Mössingen
+24:27</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -50418,7 +50516,8 @@
           <t>So, 07.12.
 🏠 Spvgg Mössingen
 vs
-HSG Böblingen/Sindelfingen</t>
+HSG Böblingen/Sindelfingen
+22:24</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -50426,7 +50525,8 @@
           <t>Sa, 13.12.
 HSG Schönbuch
 vs
-🏃 Spvgg Mössingen</t>
+🏃 Spvgg Mössingen
+23:28</t>
         </is>
       </c>
     </row>
@@ -56348,7 +56448,7 @@
     <col width="10" customWidth="1" min="66" max="66"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1" ht="80" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match</t>
@@ -56359,7 +56459,8 @@
           <t>Sa, 27.09.
 HSG Schönbuch
 vs
-🏃 TV Überlingen</t>
+🏃 TV Überlingen
+35:35</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -56367,7 +56468,8 @@
           <t>So, 19.10.
 SV Vaihingen
 vs
-🏃 TV Überlingen</t>
+🏃 TV Überlingen
+34:33</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -56375,7 +56477,8 @@
           <t>Sa, 25.10.
 🏠 TV Überlingen
 vs
-Spvgg Mössingen</t>
+Spvgg Mössingen
+36:28</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -56383,7 +56486,8 @@
           <t>Sa, 08.11.
 🏠 TV Überlingen
 vs
-SV Leonberg/Eltingen</t>
+SV Leonberg/Eltingen
+36:37</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -56391,7 +56495,8 @@
           <t>Sa, 15.11.
 Jugendhandball-Akademie Neuhausen-Ostfildern 2
 vs
-🏃 TV Überlingen</t>
+🏃 TV Überlingen
+36:33</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -56399,7 +56504,8 @@
           <t>So, 23.11.
 🏠 TV Überlingen
 vs
-DJK Singen</t>
+DJK Singen
+29:33</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -56407,7 +56513,8 @@
           <t>So, 30.11.
 Team Stuttgart
 vs
-🏃 TV Überlingen</t>
+🏃 TV Überlingen
+45:26</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -56415,7 +56522,8 @@
           <t>Sa, 06.12.
 🏠 TV Überlingen
 vs
-HSG Schönbuch</t>
+HSG Schönbuch
+50:32</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -56423,7 +56531,8 @@
           <t>Fr, 12.12.
 HSG Böblingen/Sindelfingen
 vs
-🏃 TV Überlingen</t>
+🏃 TV Überlingen
+31:29</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -56431,7 +56540,8 @@
           <t>So, 14.12.
 HSG Konstanz
 vs
-🏃 TV Überlingen</t>
+🏃 TV Überlingen
+33:34</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -56439,7 +56549,8 @@
           <t>Sa, 20.12.
 🏠 TV Überlingen
 vs
-HSG Konstanz</t>
+HSG Konstanz
+32:30</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
@@ -56447,7 +56558,8 @@
           <t>Sa, 10.01.
 🏠 TV Überlingen
 vs
-Jugendhandball-Akademie Neuhausen-Ostfildern 2</t>
+Jugendhandball-Akademie Neuhausen-Ostfildern 2
+46:38</t>
         </is>
       </c>
     </row>

--- a/handball_players_report.xlsx
+++ b/handball_players_report.xlsx
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>5</v>
@@ -1660,10 +1660,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AB4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AC4" s="4" t="inlineStr">
         <is>
@@ -1694,7 +1692,7 @@
         </is>
       </c>
       <c r="AI4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ4" s="4" t="n">
         <v>1</v>
@@ -1815,10 +1813,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BK4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BK4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BL4" s="4" t="inlineStr">
         <is>
@@ -1848,10 +1844,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BR4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BR4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BS4" s="4" t="inlineStr">
         <is>
@@ -1913,7 +1907,7 @@
         </is>
       </c>
       <c r="CF4" s="5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="CG4" s="5" t="n">
         <v>11</v>
@@ -3666,10 +3660,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
@@ -3765,10 +3757,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AP9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AP9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AQ9" s="4" t="inlineStr">
         <is>
@@ -3958,7 +3948,7 @@
         </is>
       </c>
       <c r="CF9" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG9" s="5" t="n">
         <v>1</v>
@@ -4291,7 +4281,7 @@
         </is>
       </c>
       <c r="BR10" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS10" s="4" t="n">
         <v>2</v>
@@ -4351,7 +4341,7 @@
         </is>
       </c>
       <c r="CF10" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CG10" s="5" t="n">
         <v>2</v>
@@ -4480,7 +4470,7 @@
         </is>
       </c>
       <c r="AB11" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="4" t="n">
         <v>1</v>
@@ -4726,7 +4716,7 @@
         </is>
       </c>
       <c r="CF11" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG11" s="5" t="n">
         <v>1</v>
@@ -4761,10 +4751,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G12" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
@@ -4854,10 +4842,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AB12" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AC12" s="4" t="inlineStr">
         <is>
@@ -4887,10 +4873,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AI12" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AJ12" s="4" t="inlineStr">
         <is>
@@ -4942,7 +4926,7 @@
         </is>
       </c>
       <c r="AW12" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="4" t="n">
         <v>2</v>
@@ -5083,7 +5067,7 @@
         </is>
       </c>
       <c r="CF12" s="5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CG12" s="5" t="n">
         <v>8</v>
@@ -7184,7 +7168,7 @@
         </is>
       </c>
       <c r="G18" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>1</v>
@@ -7234,7 +7218,7 @@
         </is>
       </c>
       <c r="U18" s="7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V18" s="7" t="n">
         <v>6</v>
@@ -7261,7 +7245,7 @@
         </is>
       </c>
       <c r="AB18" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC18" s="7" t="n">
         <v>2</v>
@@ -7288,7 +7272,7 @@
         </is>
       </c>
       <c r="AI18" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ18" s="7" t="n">
         <v>1</v>
@@ -7311,7 +7295,7 @@
         </is>
       </c>
       <c r="AP18" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ18" s="7" t="n">
         <v>2</v>
@@ -7336,7 +7320,7 @@
         </is>
       </c>
       <c r="AW18" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="7" t="n">
         <v>2</v>
@@ -7388,7 +7372,7 @@
         </is>
       </c>
       <c r="BK18" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL18" s="7" t="n">
         <v>2</v>
@@ -7411,7 +7395,7 @@
         </is>
       </c>
       <c r="BR18" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BS18" s="7" t="n">
         <v>3</v>
@@ -7459,7 +7443,7 @@
         </is>
       </c>
       <c r="CF18" s="7" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="CG18" s="7" t="n">
         <v>25</v>
@@ -8850,10 +8834,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BR4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BR4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BS4" s="4" t="inlineStr">
         <is>
@@ -8913,7 +8895,7 @@
         </is>
       </c>
       <c r="CF4" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CG4" s="5" t="n">
         <v>3</v>
@@ -9961,10 +9943,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BD7" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BD7" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BE7" s="4" t="inlineStr">
         <is>
@@ -10027,10 +10007,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BR7" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BR7" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BS7" s="4" t="inlineStr">
         <is>
@@ -10091,10 +10069,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="CF7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="CF7" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="CG7" s="5" t="inlineStr">
         <is>
@@ -10624,7 +10600,7 @@
         </is>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="4" t="n">
         <v>1</v>
@@ -10811,10 +10787,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BR9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BR9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BS9" s="4" t="inlineStr">
         <is>
@@ -10872,7 +10846,7 @@
         </is>
       </c>
       <c r="CF9" s="5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CG9" s="5" t="n">
         <v>7</v>
@@ -11002,10 +10976,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB10" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AB10" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AC10" s="4" t="inlineStr">
         <is>
@@ -11069,7 +11041,7 @@
         </is>
       </c>
       <c r="AP10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ10" s="4" t="n">
         <v>1</v>
@@ -11259,7 +11231,7 @@
         </is>
       </c>
       <c r="CF10" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CG10" s="5" t="n">
         <v>3</v>
@@ -15502,7 +15474,7 @@
         </is>
       </c>
       <c r="AB21" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC21" s="7" t="n">
         <v>2</v>
@@ -15556,7 +15528,7 @@
         </is>
       </c>
       <c r="AP21" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ21" s="7" t="n">
         <v>3</v>
@@ -15612,7 +15584,7 @@
         </is>
       </c>
       <c r="BD21" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE21" s="7" t="n">
         <v>3</v>
@@ -15666,7 +15638,7 @@
         </is>
       </c>
       <c r="BR21" s="7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BS21" s="7" t="n">
         <v>3</v>
@@ -15720,7 +15692,7 @@
         </is>
       </c>
       <c r="CF21" s="7" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="CG21" s="7" t="n">
         <v>18</v>
@@ -16508,10 +16480,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AB3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AC3" s="4" t="inlineStr">
         <is>
@@ -16768,10 +16738,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="CF3" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="CF3" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="CG3" s="5" t="inlineStr">
         <is>
@@ -18076,7 +18044,7 @@
         </is>
       </c>
       <c r="U7" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V7" s="4" t="n">
         <v>7</v>
@@ -18105,7 +18073,7 @@
         </is>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="4" t="n">
         <v>2</v>
@@ -18190,7 +18158,7 @@
         </is>
       </c>
       <c r="AW7" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX7" s="4" t="n">
         <v>3</v>
@@ -18302,7 +18270,7 @@
         </is>
       </c>
       <c r="BY7" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ7" s="4" t="n">
         <v>1</v>
@@ -18327,7 +18295,7 @@
         </is>
       </c>
       <c r="CF7" s="5" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="CG7" s="5" t="n">
         <v>37</v>
@@ -22557,7 +22525,7 @@
         </is>
       </c>
       <c r="U18" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V18" s="7" t="n">
         <v>7</v>
@@ -22586,7 +22554,7 @@
         </is>
       </c>
       <c r="AB18" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC18" s="7" t="n">
         <v>3</v>
@@ -22665,7 +22633,7 @@
         </is>
       </c>
       <c r="AW18" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX18" s="7" t="n">
         <v>3</v>
@@ -22771,7 +22739,7 @@
         </is>
       </c>
       <c r="BY18" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ18" s="7" t="n">
         <v>1</v>
@@ -22796,7 +22764,7 @@
         </is>
       </c>
       <c r="CF18" s="7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="CG18" s="7" t="n">
         <v>38</v>
@@ -23487,10 +23455,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
@@ -23639,7 +23605,7 @@
         </is>
       </c>
       <c r="AP3" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ3" s="4" t="n">
         <v>1</v>
@@ -23815,7 +23781,7 @@
         </is>
       </c>
       <c r="CF3" s="5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CG3" s="5" t="n">
         <v>5</v>
@@ -26080,10 +26046,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AP9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AP9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AQ9" s="4" t="inlineStr">
         <is>
@@ -26259,7 +26223,7 @@
         </is>
       </c>
       <c r="CF9" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CG9" s="5" t="n">
         <v>3</v>
@@ -27938,10 +27902,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G14" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
@@ -27969,10 +27931,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N14" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="O14" s="4" t="inlineStr">
         <is>
@@ -28099,10 +28059,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AP14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AP14" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AQ14" s="4" t="inlineStr">
         <is>
@@ -28289,10 +28247,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="CF14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="CF14" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="CG14" s="5" t="inlineStr">
         <is>
@@ -32483,10 +32439,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G25" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="H25" s="7" t="inlineStr">
         <is>
@@ -32512,10 +32466,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N25" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -32627,7 +32579,7 @@
         </is>
       </c>
       <c r="AP25" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ25" s="7" t="n">
         <v>1</v>
@@ -32785,7 +32737,7 @@
         </is>
       </c>
       <c r="CF25" s="7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="CG25" s="7" t="n">
         <v>8</v>
@@ -34587,10 +34539,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BR5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BR5" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BS5" s="4" t="inlineStr">
         <is>
@@ -34647,10 +34597,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="CF5" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="CF5" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="CG5" s="5" t="inlineStr">
         <is>
@@ -34933,10 +34881,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BK6" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BK6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BL6" s="4" t="inlineStr">
         <is>
@@ -35028,10 +34974,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="CF6" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="CF6" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="CG6" s="5" t="inlineStr">
         <is>
@@ -37673,7 +37617,7 @@
         </is>
       </c>
       <c r="AI13" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="4" t="n">
         <v>1</v>
@@ -37700,7 +37644,7 @@
         </is>
       </c>
       <c r="AP13" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ13" s="4" t="n">
         <v>3</v>
@@ -37778,10 +37722,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BK13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BK13" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BL13" s="4" t="inlineStr">
         <is>
@@ -37812,7 +37754,7 @@
         </is>
       </c>
       <c r="BR13" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS13" s="4" t="n">
         <v>1</v>
@@ -37838,10 +37780,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BY13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BY13" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="BZ13" s="4" t="inlineStr">
         <is>
@@ -37868,7 +37808,7 @@
         </is>
       </c>
       <c r="CF13" s="5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="CG13" s="5" t="n">
         <v>9</v>
@@ -40949,7 +40889,7 @@
         </is>
       </c>
       <c r="AI21" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ21" s="7" t="n">
         <v>1</v>
@@ -40976,7 +40916,7 @@
         </is>
       </c>
       <c r="AP21" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ21" s="7" t="n">
         <v>3</v>
@@ -41052,10 +40992,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BK21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BK21" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="BL21" s="7" t="inlineStr">
         <is>
@@ -41084,7 +41022,7 @@
         </is>
       </c>
       <c r="BR21" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BS21" s="7" t="n">
         <v>2</v>
@@ -41110,10 +41048,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BY21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BY21" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="BZ21" s="7" t="inlineStr">
         <is>
@@ -41140,7 +41076,7 @@
         </is>
       </c>
       <c r="CF21" s="7" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="CG21" s="7" t="n">
         <v>11</v>
@@ -42199,10 +42135,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BR3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BR3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BS3" s="4" t="inlineStr">
         <is>
@@ -42304,10 +42238,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="CM3" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="CM3" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="CN3" s="5" t="inlineStr">
         <is>
@@ -42371,10 +42303,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
@@ -42402,10 +42332,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
@@ -42727,7 +42655,7 @@
         </is>
       </c>
       <c r="CM4" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CN4" s="5" t="n">
         <v>2</v>
@@ -46075,7 +46003,7 @@
         </is>
       </c>
       <c r="AW12" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="4" t="n">
         <v>2</v>
@@ -46191,7 +46119,7 @@
         </is>
       </c>
       <c r="BY12" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ12" s="4" t="n">
         <v>1</v>
@@ -46243,7 +46171,7 @@
         </is>
       </c>
       <c r="CM12" s="5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CN12" s="5" t="n">
         <v>10</v>
@@ -46804,7 +46732,7 @@
         </is>
       </c>
       <c r="AB14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="4" t="n">
         <v>1</v>
@@ -46890,10 +46818,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AW14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AW14" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AX14" s="4" t="inlineStr">
         <is>
@@ -46920,7 +46846,7 @@
         </is>
       </c>
       <c r="BD14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE14" s="4" t="n">
         <v>1</v>
@@ -47007,7 +46933,7 @@
         </is>
       </c>
       <c r="BY14" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ14" s="4" t="n">
         <v>2</v>
@@ -47065,7 +46991,7 @@
         </is>
       </c>
       <c r="CM14" s="5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CN14" s="5" t="n">
         <v>17</v>
@@ -47885,7 +47811,7 @@
         </is>
       </c>
       <c r="BY16" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="4" t="n">
         <v>1</v>
@@ -47945,7 +47871,7 @@
         </is>
       </c>
       <c r="CM16" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN16" s="5" t="n">
         <v>1</v>
@@ -49788,7 +49714,7 @@
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" s="7" t="n">
         <v>4</v>
@@ -49813,7 +49739,7 @@
         </is>
       </c>
       <c r="U21" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="7" t="n">
         <v>1</v>
@@ -49840,7 +49766,7 @@
         </is>
       </c>
       <c r="AB21" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC21" s="7" t="n">
         <v>2</v>
@@ -49917,7 +49843,7 @@
         </is>
       </c>
       <c r="AW21" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="7" t="n">
         <v>2</v>
@@ -49942,7 +49868,7 @@
         </is>
       </c>
       <c r="BD21" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE21" s="7" t="n">
         <v>2</v>
@@ -49994,7 +49920,7 @@
         </is>
       </c>
       <c r="BR21" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS21" s="7" t="n">
         <v>4</v>
@@ -50021,7 +49947,7 @@
         </is>
       </c>
       <c r="BY21" s="7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BZ21" s="7" t="n">
         <v>4</v>
@@ -50073,7 +49999,7 @@
         </is>
       </c>
       <c r="CM21" s="7" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="CN21" s="7" t="n">
         <v>31</v>
@@ -51243,10 +51169,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AB4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AC4" s="4" t="inlineStr">
         <is>
@@ -51307,10 +51231,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AP4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AP4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AQ4" s="4" t="inlineStr">
         <is>
@@ -51488,7 +51410,7 @@
         </is>
       </c>
       <c r="CF4" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CG4" s="5" t="n">
         <v>4</v>
@@ -60815,7 +60737,7 @@
         </is>
       </c>
       <c r="AB27" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC27" s="4" t="n">
         <v>3</v>
@@ -60871,7 +60793,7 @@
         </is>
       </c>
       <c r="AP27" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ27" s="4" t="n">
         <v>5</v>
@@ -60900,7 +60822,7 @@
         </is>
       </c>
       <c r="AW27" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX27" s="4" t="n">
         <v>4</v>
@@ -60984,10 +60906,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BR27" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BR27" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="BS27" s="4" t="inlineStr">
         <is>
@@ -61043,7 +60963,7 @@
         </is>
       </c>
       <c r="CF27" s="5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="CG27" s="5" t="n">
         <v>29</v>
@@ -61162,7 +61082,7 @@
         </is>
       </c>
       <c r="AB28" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC28" s="7" t="n">
         <v>3</v>
@@ -61214,7 +61134,7 @@
         </is>
       </c>
       <c r="AP28" s="7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ28" s="7" t="n">
         <v>5</v>
@@ -61239,7 +61159,7 @@
         </is>
       </c>
       <c r="AW28" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX28" s="7" t="n">
         <v>5</v>
@@ -61314,7 +61234,7 @@
         </is>
       </c>
       <c r="BR28" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS28" s="7" t="n">
         <v>1</v>
@@ -61362,7 +61282,7 @@
         </is>
       </c>
       <c r="CF28" s="7" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="CG28" s="7" t="n">
         <v>33</v>
@@ -63551,10 +63471,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BR6" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BR6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BS6" s="4" t="inlineStr">
         <is>
@@ -63614,7 +63532,7 @@
         </is>
       </c>
       <c r="CF6" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG6" s="5" t="n">
         <v>1</v>
@@ -63975,10 +63893,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BY7" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BY7" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BZ7" s="4" t="inlineStr">
         <is>
@@ -64007,7 +63923,7 @@
         </is>
       </c>
       <c r="CF7" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CG7" s="5" t="n">
         <v>2</v>
@@ -66020,10 +65936,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BY12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BY12" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BZ12" s="4" t="inlineStr">
         <is>
@@ -66050,7 +65964,7 @@
         </is>
       </c>
       <c r="CF12" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG12" s="5" t="n">
         <v>1</v>
@@ -67044,10 +66958,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AB15" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AC15" s="4" t="inlineStr">
         <is>
@@ -67320,10 +67232,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="CF15" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="CF15" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="CG15" s="5" t="inlineStr">
         <is>
@@ -68473,10 +68383,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BR18" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BR18" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BS18" s="4" t="inlineStr">
         <is>
@@ -68538,7 +68446,7 @@
         </is>
       </c>
       <c r="CF18" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CG18" s="5" t="n">
         <v>11</v>
@@ -69471,7 +69379,7 @@
         </is>
       </c>
       <c r="AB21" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC21" s="7" t="n">
         <v>3</v>
@@ -69629,7 +69537,7 @@
         </is>
       </c>
       <c r="BR21" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS21" s="7" t="n">
         <v>1</v>
@@ -69656,7 +69564,7 @@
         </is>
       </c>
       <c r="BY21" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ21" s="7" t="n">
         <v>1</v>
@@ -69681,7 +69589,7 @@
         </is>
       </c>
       <c r="CF21" s="7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="CG21" s="7" t="n">
         <v>16</v>
@@ -70488,10 +70396,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AI3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AJ3" s="4" t="inlineStr">
         <is>
@@ -70550,10 +70456,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AW3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AW3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AX3" s="4" t="inlineStr">
         <is>
@@ -70698,7 +70602,7 @@
         </is>
       </c>
       <c r="CF3" s="5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG3" s="5" t="n">
         <v>6</v>
@@ -70995,10 +70899,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BK4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BK4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BL4" s="4" t="inlineStr">
         <is>
@@ -71095,7 +70997,7 @@
         </is>
       </c>
       <c r="CF4" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG4" s="5" t="n">
         <v>1</v>
@@ -73755,10 +73657,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB11" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AB11" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AC11" s="4" t="inlineStr">
         <is>
@@ -73789,7 +73689,7 @@
         </is>
       </c>
       <c r="AI11" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ11" s="4" t="n">
         <v>1</v>
@@ -73817,10 +73717,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AP11" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AP11" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AQ11" s="4" t="inlineStr">
         <is>
@@ -73849,7 +73747,7 @@
         </is>
       </c>
       <c r="AW11" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX11" s="4" t="n">
         <v>4</v>
@@ -73878,7 +73776,7 @@
         </is>
       </c>
       <c r="BD11" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE11" s="4" t="n">
         <v>4</v>
@@ -73942,7 +73840,7 @@
         </is>
       </c>
       <c r="BR11" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BS11" s="4" t="n">
         <v>2</v>
@@ -73998,7 +73896,7 @@
         </is>
       </c>
       <c r="CF11" s="5" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="CG11" s="5" t="n">
         <v>17</v>
@@ -77810,7 +77708,7 @@
         </is>
       </c>
       <c r="AB21" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC21" s="7" t="n">
         <v>2</v>
@@ -77835,7 +77733,7 @@
         </is>
       </c>
       <c r="AI21" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ21" s="7" t="n">
         <v>2</v>
@@ -77859,10 +77757,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AP21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AP21" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="AQ21" s="7" t="inlineStr">
         <is>
@@ -77889,7 +77785,7 @@
         </is>
       </c>
       <c r="AW21" s="7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX21" s="7" t="n">
         <v>4</v>
@@ -77916,7 +77812,7 @@
         </is>
       </c>
       <c r="BD21" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE21" s="7" t="n">
         <v>4</v>
@@ -77941,7 +77837,7 @@
         </is>
       </c>
       <c r="BK21" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL21" s="7" t="n">
         <v>1</v>
@@ -77966,7 +77862,7 @@
         </is>
       </c>
       <c r="BR21" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BS21" s="7" t="n">
         <v>3</v>
@@ -78018,7 +77914,7 @@
         </is>
       </c>
       <c r="CF21" s="7" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="CG21" s="7" t="n">
         <v>24</v>
@@ -82416,7 +82312,7 @@
         </is>
       </c>
       <c r="AP11" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ11" s="4" t="n">
         <v>2</v>
@@ -82528,7 +82424,7 @@
         </is>
       </c>
       <c r="BR11" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS11" s="4" t="n">
         <v>2</v>
@@ -82611,7 +82507,7 @@
         </is>
       </c>
       <c r="CM11" s="5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CN11" s="5" t="n">
         <v>19</v>
@@ -84078,7 +83974,7 @@
         </is>
       </c>
       <c r="AP15" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ15" s="7" t="n">
         <v>3</v>
@@ -84182,7 +84078,7 @@
         </is>
       </c>
       <c r="BR15" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS15" s="7" t="n">
         <v>2</v>
@@ -84261,7 +84157,7 @@
         </is>
       </c>
       <c r="CM15" s="7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CN15" s="7" t="n">
         <v>21</v>
